--- a/Results/genes/Diapause_Estrus_GO_Metascape/metascape_result.xlsx
+++ b/Results/genes/Diapause_Estrus_GO_Metascape/metascape_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\Research_Hunt\Results\genes\Diapause_Estrus_GO_Metascape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C5F960-955E-4187-8D7F-79E2843E5562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27040C9F-881F-4DCF-9615-71208D5E127F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annotation" sheetId="1" r:id="rId1"/>
@@ -84003,11 +84003,13 @@
   <dimension ref="A1:I255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
